--- a/Week 16/Methods/Points/ScoredCFiltered.xlsx
+++ b/Week 16/Methods/Points/ScoredCFiltered.xlsx
@@ -454,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>32.22222222222222</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -468,7 +468,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>2.857142857142857</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
